--- a/bioinfo-m2/Results/Bacteria/PVC group/Total_Chlamydiae.xlsx
+++ b/bioinfo-m2/Results/Bacteria/PVC group/Total_Chlamydiae.xlsx
@@ -33,7 +33,7 @@
     <t>Modification date</t>
   </si>
   <si>
-    <t>14-Dec-2017</t>
+    <t>19-Dec-2017</t>
   </si>
   <si>
     <t>BioProject</t>
@@ -521,31 +521,31 @@
         <v>18</v>
       </c>
       <c r="B2" t="n" s="6">
-        <v>1354867.0</v>
+        <v>1369504.0</v>
       </c>
       <c r="C2" t="n" s="7">
-        <v>4.132898133552508</v>
+        <v>4.1313327384070675</v>
       </c>
       <c r="D2" t="n" s="6">
-        <v>1135602.0</v>
+        <v>1147844.0</v>
       </c>
       <c r="E2" t="n" s="7">
-        <v>3.4640502619507996</v>
+        <v>3.4626591056208107</v>
       </c>
       <c r="F2" t="n" s="6">
-        <v>1010959.0</v>
+        <v>1023249.0</v>
       </c>
       <c r="G2" t="n" s="7">
-        <v>3.0838381658111897</v>
+        <v>3.0867979160647168</v>
       </c>
       <c r="H2" t="n" s="6">
-        <v>65203.0</v>
+        <v>65863.0</v>
       </c>
       <c r="I2" t="n" s="6">
-        <v>27430.0</v>
+        <v>27705.0</v>
       </c>
       <c r="J2" t="n" s="6">
-        <v>14792.0</v>
+        <v>15050.0</v>
       </c>
       <c r="M2" t="s" s="3">
         <v>0</v>
@@ -559,31 +559,31 @@
         <v>19</v>
       </c>
       <c r="B3" t="n" s="8">
-        <v>386828.0</v>
+        <v>391799.0</v>
       </c>
       <c r="C3" t="n" s="9">
-        <v>1.179983510710534</v>
+        <v>1.1819257450691278</v>
       </c>
       <c r="D3" t="n" s="8">
-        <v>600069.0</v>
+        <v>606553.0</v>
       </c>
       <c r="E3" t="n" s="9">
-        <v>1.8304557200837568</v>
+        <v>1.8297662996815067</v>
       </c>
       <c r="F3" t="n" s="8">
-        <v>561017.0</v>
+        <v>566913.0</v>
       </c>
       <c r="G3" t="n" s="9">
-        <v>1.7113311581071995</v>
+        <v>1.710185758295387</v>
       </c>
       <c r="H3" t="n" s="10">
-        <v>17527.0</v>
+        <v>17760.0</v>
       </c>
       <c r="I3" t="n" s="10">
-        <v>51621.0</v>
+        <v>52192.0</v>
       </c>
       <c r="J3" t="n" s="10">
-        <v>41583.0</v>
+        <v>41988.0</v>
       </c>
     </row>
     <row r="4">
@@ -591,37 +591,37 @@
         <v>20</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>568003.0</v>
+        <v>575617.0</v>
       </c>
       <c r="C4" t="n" s="7">
-        <v>1.7326413135401664</v>
+        <v>1.736442797453429</v>
       </c>
       <c r="D4" t="n" s="6">
-        <v>1435695.0</v>
+        <v>1451204.0</v>
       </c>
       <c r="E4" t="n" s="7">
-        <v>4.379456570903761</v>
+        <v>4.377794146864332</v>
       </c>
       <c r="F4" t="n" s="6">
-        <v>371542.0</v>
+        <v>376002.0</v>
       </c>
       <c r="G4" t="n" s="7">
-        <v>1.133354962764881</v>
+        <v>1.1342715116615463</v>
       </c>
       <c r="H4" t="n" s="6">
-        <v>10337.0</v>
+        <v>10501.0</v>
       </c>
       <c r="I4" t="n" s="6">
-        <v>84418.0</v>
+        <v>85306.0</v>
       </c>
       <c r="J4" t="n" s="6">
-        <v>4517.0</v>
+        <v>4570.0</v>
       </c>
       <c r="M4" t="s" s="3">
         <v>2</v>
       </c>
       <c r="N4" t="n" s="1">
-        <v>8.1979185E7</v>
+        <v>8.2896207E7</v>
       </c>
     </row>
     <row r="5">
@@ -629,31 +629,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="n" s="8">
-        <v>818541.0</v>
+        <v>828132.0</v>
       </c>
       <c r="C5" t="n" s="9">
-        <v>2.496884617557445</v>
+        <v>2.498195582723761</v>
       </c>
       <c r="D5" t="n" s="8">
-        <v>522981.0</v>
+        <v>528529.0</v>
       </c>
       <c r="E5" t="n" s="9">
-        <v>1.5953058114068936</v>
+        <v>1.5943941462730662</v>
       </c>
       <c r="F5" t="n" s="8">
-        <v>650234.0</v>
+        <v>657707.0</v>
       </c>
       <c r="G5" t="n" s="9">
-        <v>1.9834794743486859</v>
+        <v>1.984080704678115</v>
       </c>
       <c r="H5" t="n" s="10">
-        <v>54051.0</v>
+        <v>54622.0</v>
       </c>
       <c r="I5" t="n" s="10">
-        <v>20078.0</v>
+        <v>20269.0</v>
       </c>
       <c r="J5" t="n" s="10">
-        <v>35873.0</v>
+        <v>36301.0</v>
       </c>
     </row>
     <row r="6">
@@ -661,37 +661,37 @@
         <v>22</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>574852.0</v>
+        <v>581408.0</v>
       </c>
       <c r="C6" t="n" s="7">
-        <v>1.7535335629762374</v>
+        <v>1.7539122958178845</v>
       </c>
       <c r="D6" t="n" s="6">
-        <v>363432.0</v>
+        <v>367508.0</v>
       </c>
       <c r="E6" t="n" s="7">
-        <v>1.1086161479121233</v>
+        <v>1.1086479718398081</v>
       </c>
       <c r="F6" t="n" s="6">
-        <v>578258.0</v>
+        <v>584046.0</v>
       </c>
       <c r="G6" t="n" s="7">
-        <v>1.7639232551326482</v>
+        <v>1.7618702541472637</v>
       </c>
       <c r="H6" t="n" s="6">
-        <v>44388.0</v>
+        <v>44926.0</v>
       </c>
       <c r="I6" t="n" s="6">
-        <v>17333.0</v>
+        <v>17511.0</v>
       </c>
       <c r="J6" t="n" s="6">
-        <v>48914.0</v>
+        <v>49389.0</v>
       </c>
       <c r="M6" t="s" s="3">
         <v>3</v>
       </c>
       <c r="N6" t="n" s="1">
-        <v>386828.0</v>
+        <v>391799.0</v>
       </c>
     </row>
     <row r="7">
@@ -699,31 +699,31 @@
         <v>23</v>
       </c>
       <c r="B7" t="n" s="8">
-        <v>312128.0</v>
+        <v>316178.0</v>
       </c>
       <c r="C7" t="n" s="9">
-        <v>0.9521179780963571</v>
+        <v>0.953802634066107</v>
       </c>
       <c r="D7" t="n" s="8">
-        <v>290688.0</v>
+        <v>294526.0</v>
       </c>
       <c r="E7" t="n" s="9">
-        <v>0.886717214786478</v>
+        <v>0.8884858358296727</v>
       </c>
       <c r="F7" t="n" s="8">
-        <v>225374.0</v>
+        <v>227965.0</v>
       </c>
       <c r="G7" t="n" s="9">
-        <v>0.6874828185727919</v>
+        <v>0.6876936961929042</v>
       </c>
       <c r="H7" t="n" s="10">
-        <v>48638.0</v>
+        <v>49166.0</v>
       </c>
       <c r="I7" t="n" s="10">
-        <v>43343.0</v>
+        <v>43831.0</v>
       </c>
       <c r="J7" t="n" s="10">
-        <v>29877.0</v>
+        <v>30168.0</v>
       </c>
     </row>
     <row r="8">
@@ -731,31 +731,31 @@
         <v>24</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>257061.0</v>
+        <v>259895.0</v>
       </c>
       <c r="C8" t="n" s="7">
-        <v>0.7841411202052608</v>
+        <v>0.7840157619461534</v>
       </c>
       <c r="D8" t="n" s="6">
-        <v>312108.0</v>
+        <v>315982.0</v>
       </c>
       <c r="E8" t="n" s="7">
-        <v>0.9520569699216277</v>
+        <v>0.9532113680188902</v>
       </c>
       <c r="F8" t="n" s="6">
-        <v>264313.0</v>
+        <v>267157.0</v>
       </c>
       <c r="G8" t="n" s="7">
-        <v>0.8062626843621283</v>
+        <v>0.8059227723282423</v>
       </c>
       <c r="H8" t="n" s="6">
-        <v>34421.0</v>
+        <v>34768.0</v>
       </c>
       <c r="I8" t="n" s="6">
-        <v>48477.0</v>
+        <v>49067.0</v>
       </c>
       <c r="J8" t="n" s="6">
-        <v>38381.0</v>
+        <v>38772.0</v>
       </c>
       <c r="M8" t="s" s="3">
         <v>4</v>
@@ -769,31 +769,31 @@
         <v>25</v>
       </c>
       <c r="B9" t="n" s="8">
-        <v>543431.0</v>
+        <v>550007.0</v>
       </c>
       <c r="C9" t="n" s="9">
-        <v>1.657686670067669</v>
+        <v>1.65918604505942</v>
       </c>
       <c r="D9" t="n" s="8">
-        <v>322516.0</v>
+        <v>326606.0</v>
       </c>
       <c r="E9" t="n" s="9">
-        <v>0.9838056240507891</v>
+        <v>0.985260401108853</v>
       </c>
       <c r="F9" t="n" s="8">
-        <v>384032.0</v>
+        <v>388932.0</v>
       </c>
       <c r="G9" t="n" s="9">
-        <v>1.171454567883369</v>
+        <v>1.173276970796827</v>
       </c>
       <c r="H9" t="n" s="10">
-        <v>59152.0</v>
+        <v>59795.0</v>
       </c>
       <c r="I9" t="n" s="10">
-        <v>22037.0</v>
+        <v>22263.0</v>
       </c>
       <c r="J9" t="n" s="10">
-        <v>33517.0</v>
+        <v>33917.0</v>
       </c>
     </row>
     <row r="10">
@@ -801,31 +801,31 @@
         <v>26</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>347587.0</v>
+        <v>351542.0</v>
       </c>
       <c r="C10" t="n" s="7">
-        <v>1.0602824214827842</v>
+        <v>1.0604839222996774</v>
       </c>
       <c r="D10" t="n" s="6">
-        <v>533933.0</v>
+        <v>540660.0</v>
       </c>
       <c r="E10" t="n" s="7">
-        <v>1.6287138878886938</v>
+        <v>1.630989291266886</v>
       </c>
       <c r="F10" t="n" s="6">
-        <v>1602598.0</v>
+        <v>1620453.0</v>
       </c>
       <c r="G10" t="n" s="7">
-        <v>4.88857894024652</v>
+        <v>4.888361428626677</v>
       </c>
       <c r="H10" t="n" s="6">
-        <v>3863.0</v>
+        <v>3921.0</v>
       </c>
       <c r="I10" t="n" s="6">
-        <v>6316.0</v>
+        <v>6396.0</v>
       </c>
       <c r="J10" t="n" s="6">
-        <v>87463.0</v>
+        <v>88422.0</v>
       </c>
       <c r="M10" t="s" s="3">
         <v>5</v>
@@ -839,31 +839,31 @@
         <v>27</v>
       </c>
       <c r="B11" t="n" s="8">
-        <v>288317.0</v>
+        <v>291668.0</v>
       </c>
       <c r="C11" t="n" s="9">
-        <v>0.8794846956723119</v>
+        <v>0.8798642115289277</v>
       </c>
       <c r="D11" t="n" s="8">
-        <v>450264.0</v>
+        <v>455313.0</v>
       </c>
       <c r="E11" t="n" s="9">
-        <v>1.3734892393171332</v>
+        <v>1.3735261110024777</v>
       </c>
       <c r="F11" t="n" s="8">
-        <v>918023.0</v>
+        <v>927041.0</v>
       </c>
       <c r="G11" t="n" s="9">
-        <v>2.800345379478778</v>
+        <v>2.796570753459374</v>
       </c>
       <c r="H11" t="n" s="10">
-        <v>6701.0</v>
+        <v>6815.0</v>
       </c>
       <c r="I11" t="n" s="10">
-        <v>18682.0</v>
+        <v>18943.0</v>
       </c>
       <c r="J11" t="n" s="10">
-        <v>77857.0</v>
+        <v>78666.0</v>
       </c>
     </row>
     <row r="12">
@@ -871,31 +871,31 @@
         <v>28</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>93136.0</v>
+        <v>94725.0</v>
       </c>
       <c r="C12" t="n" s="7">
-        <v>0.2841028680797055</v>
+        <v>0.2857534506256349</v>
       </c>
       <c r="D12" t="n" s="6">
-        <v>464103.0</v>
+        <v>469941.0</v>
       </c>
       <c r="E12" t="n" s="7">
-        <v>1.4157038458211169</v>
+        <v>1.417653864771301</v>
       </c>
       <c r="F12" t="n" s="6">
-        <v>863084.0</v>
+        <v>872744.0</v>
       </c>
       <c r="G12" t="n" s="7">
-        <v>2.6327589739059496</v>
+        <v>2.6327749750627514</v>
       </c>
       <c r="H12" t="n" s="6">
-        <v>3245.0</v>
+        <v>3286.0</v>
       </c>
       <c r="I12" t="n" s="6">
-        <v>24041.0</v>
+        <v>24336.0</v>
       </c>
       <c r="J12" t="n" s="6">
-        <v>77215.0</v>
+        <v>78016.0</v>
       </c>
       <c r="M12" t="s" s="3">
         <v>7</v>
@@ -909,31 +909,31 @@
         <v>29</v>
       </c>
       <c r="B13" t="n" s="8">
-        <v>354328.0</v>
+        <v>358545.0</v>
       </c>
       <c r="C13" t="n" s="9">
-        <v>1.0808452267753166</v>
+        <v>1.0816096168336582</v>
       </c>
       <c r="D13" t="n" s="8">
-        <v>310696.0</v>
+        <v>314261.0</v>
       </c>
       <c r="E13" t="n" s="9">
-        <v>0.9477497927857346</v>
+        <v>0.9480196901247048</v>
       </c>
       <c r="F13" t="n" s="8">
-        <v>554156.0</v>
+        <v>560495.0</v>
       </c>
       <c r="G13" t="n" s="9">
-        <v>1.6904023037662907</v>
+        <v>1.6908248119125386</v>
       </c>
       <c r="H13" t="n" s="10">
-        <v>25183.0</v>
+        <v>25473.0</v>
       </c>
       <c r="I13" t="n" s="10">
-        <v>21491.0</v>
+        <v>21703.0</v>
       </c>
       <c r="J13" t="n" s="10">
-        <v>64903.0</v>
+        <v>65612.0</v>
       </c>
     </row>
     <row r="14">
@@ -941,31 +941,31 @@
         <v>30</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>398042.0</v>
+        <v>403032.0</v>
       </c>
       <c r="C14" t="n" s="7">
-        <v>1.2141907942812888</v>
+        <v>1.215811926234372</v>
       </c>
       <c r="D14" t="n" s="6">
-        <v>835827.0</v>
+        <v>845876.0</v>
       </c>
       <c r="E14" t="n" s="7">
-        <v>2.5496139829760347</v>
+        <v>2.5517232599779316</v>
       </c>
       <c r="F14" t="n" s="6">
-        <v>241236.0</v>
+        <v>243664.0</v>
       </c>
       <c r="G14" t="n" s="7">
-        <v>0.735868401950651</v>
+        <v>0.7350522965768773</v>
       </c>
       <c r="H14" t="n" s="6">
-        <v>19482.0</v>
+        <v>19693.0</v>
       </c>
       <c r="I14" t="n" s="6">
-        <v>78034.0</v>
+        <v>78909.0</v>
       </c>
       <c r="J14" t="n" s="6">
-        <v>6802.0</v>
+        <v>6851.0</v>
       </c>
     </row>
     <row r="15">
@@ -973,31 +973,31 @@
         <v>31</v>
       </c>
       <c r="B15" t="n" s="8">
-        <v>663445.0</v>
+        <v>671225.0</v>
       </c>
       <c r="C15" t="n" s="9">
-        <v>2.023778424166168</v>
+        <v>2.0248599619550465</v>
       </c>
       <c r="D15" t="n" s="8">
-        <v>766373.0</v>
+        <v>774932.0</v>
       </c>
       <c r="E15" t="n" s="9">
-        <v>2.3377508945933703</v>
+        <v>2.3377090841934494</v>
       </c>
       <c r="F15" t="n" s="8">
-        <v>451557.0</v>
+        <v>456334.0</v>
       </c>
       <c r="G15" t="n" s="9">
-        <v>1.3774334178133865</v>
+        <v>1.376606124442317</v>
       </c>
       <c r="H15" t="n" s="10">
-        <v>39476.0</v>
+        <v>39944.0</v>
       </c>
       <c r="I15" t="n" s="10">
-        <v>52155.0</v>
+        <v>52697.0</v>
       </c>
       <c r="J15" t="n" s="10">
-        <v>15527.0</v>
+        <v>15688.0</v>
       </c>
     </row>
     <row r="16">
@@ -1005,31 +1005,31 @@
         <v>32</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>653481.0</v>
+        <v>660472.0</v>
       </c>
       <c r="C16" t="n" s="7">
-        <v>1.9933841515159982</v>
+        <v>1.9924217792727825</v>
       </c>
       <c r="D16" t="n" s="6">
-        <v>965689.0</v>
+        <v>976233.0</v>
       </c>
       <c r="E16" t="n" s="7">
-        <v>2.945746162311273</v>
+        <v>2.9449664646568006</v>
       </c>
       <c r="F16" t="n" s="6">
-        <v>197782.0</v>
+        <v>200082.0</v>
       </c>
       <c r="G16" t="n" s="7">
-        <v>0.6033159407161602</v>
+        <v>0.6035800676492824</v>
       </c>
       <c r="H16" t="n" s="6">
-        <v>32495.0</v>
+        <v>32880.0</v>
       </c>
       <c r="I16" t="n" s="6">
-        <v>68115.0</v>
+        <v>68830.0</v>
       </c>
       <c r="J16" t="n" s="6">
-        <v>2786.0</v>
+        <v>2825.0</v>
       </c>
     </row>
     <row r="17">
@@ -1037,31 +1037,31 @@
         <v>33</v>
       </c>
       <c r="B17" t="n" s="8">
-        <v>1154063.0</v>
+        <v>1166619.0</v>
       </c>
       <c r="C17" t="n" s="9">
-        <v>3.52036385763474</v>
+        <v>3.519296962949882</v>
       </c>
       <c r="D17" t="n" s="8">
-        <v>660016.0</v>
+        <v>666607.0</v>
       </c>
       <c r="E17" t="n" s="9">
-        <v>2.013318572608818</v>
+        <v>2.0109290098833736</v>
       </c>
       <c r="F17" t="n" s="8">
-        <v>741932.0</v>
+        <v>749226.0</v>
       </c>
       <c r="G17" t="n" s="9">
-        <v>2.26319585466535</v>
+        <v>2.2601627321028444</v>
       </c>
       <c r="H17" t="n" s="10">
-        <v>69877.0</v>
+        <v>70641.0</v>
       </c>
       <c r="I17" t="n" s="10">
-        <v>14903.0</v>
+        <v>15050.0</v>
       </c>
       <c r="J17" t="n" s="10">
-        <v>19681.0</v>
+        <v>19879.0</v>
       </c>
     </row>
     <row r="18">
@@ -1069,31 +1069,31 @@
         <v>34</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>915527.0</v>
+        <v>924985.0</v>
       </c>
       <c r="C18" t="n" s="7">
-        <v>2.7927315592725535</v>
+        <v>2.7903684932906083</v>
       </c>
       <c r="D18" t="n" s="6">
-        <v>494740.0</v>
+        <v>500661.0</v>
       </c>
       <c r="E18" t="n" s="7">
-        <v>1.5091592182802942</v>
+        <v>1.5103257676820374</v>
       </c>
       <c r="F18" t="n" s="6">
-        <v>522758.0</v>
+        <v>529030.0</v>
       </c>
       <c r="G18" t="n" s="7">
-        <v>1.5946255702586614</v>
+        <v>1.5959054946896767</v>
       </c>
       <c r="H18" t="n" s="6">
-        <v>69695.0</v>
+        <v>70412.0</v>
       </c>
       <c r="I18" t="n" s="6">
-        <v>18325.0</v>
+        <v>18562.0</v>
       </c>
       <c r="J18" t="n" s="6">
-        <v>19467.0</v>
+        <v>19697.0</v>
       </c>
     </row>
     <row r="19">
@@ -1101,31 +1101,31 @@
         <v>35</v>
       </c>
       <c r="B19" t="n" s="8">
-        <v>226873.0</v>
+        <v>229641.0</v>
       </c>
       <c r="C19" t="n" s="9">
-        <v>0.6920553812687578</v>
+        <v>0.6927496242293103</v>
       </c>
       <c r="D19" t="n" s="8">
-        <v>264776.0</v>
+        <v>267799.0</v>
       </c>
       <c r="E19" t="n" s="9">
-        <v>0.8076750236071132</v>
+        <v>0.8078594702992282</v>
       </c>
       <c r="F19" t="n" s="8">
-        <v>298673.0</v>
+        <v>302402.0</v>
       </c>
       <c r="G19" t="n" s="9">
-        <v>0.911074728547177</v>
+        <v>0.9122450776045737</v>
       </c>
       <c r="H19" t="n" s="10">
-        <v>34300.0</v>
+        <v>34717.0</v>
       </c>
       <c r="I19" t="n" s="10">
-        <v>41900.0</v>
+        <v>42350.0</v>
       </c>
       <c r="J19" t="n" s="10">
-        <v>48244.0</v>
+        <v>48767.0</v>
       </c>
     </row>
     <row r="20">
@@ -1133,31 +1133,31 @@
         <v>36</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>454565.0</v>
+        <v>459465.0</v>
       </c>
       <c r="C20" t="n" s="7">
-        <v>1.3866090472926829</v>
+        <v>1.3860512978802568</v>
       </c>
       <c r="D20" t="n" s="6">
-        <v>831206.0</v>
+        <v>840437.0</v>
       </c>
       <c r="E20" t="n" s="7">
-        <v>2.5355180442048155</v>
+        <v>2.5353156271676616</v>
       </c>
       <c r="F20" t="n" s="6">
-        <v>167699.0</v>
+        <v>169757.0</v>
       </c>
       <c r="G20" t="n" s="7">
-        <v>0.5115504946969864</v>
+        <v>0.5120997468234986</v>
       </c>
       <c r="H20" t="n" s="6">
-        <v>23309.0</v>
+        <v>23556.0</v>
       </c>
       <c r="I20" t="n" s="6">
-        <v>78005.0</v>
+        <v>78878.0</v>
       </c>
       <c r="J20" t="n" s="6">
-        <v>5021.0</v>
+        <v>5081.0</v>
       </c>
     </row>
     <row r="21">
@@ -1165,31 +1165,31 @@
         <v>37</v>
       </c>
       <c r="B21" t="n" s="8">
-        <v>554765.0</v>
+        <v>560634.0</v>
       </c>
       <c r="C21" t="n" s="9">
-        <v>1.6922600026868</v>
+        <v>1.691244128139902</v>
       </c>
       <c r="D21" t="n" s="8">
-        <v>311964.0</v>
+        <v>315322.0</v>
       </c>
       <c r="E21" t="n" s="9">
-        <v>0.9516177110635763</v>
+        <v>0.9512203701047923</v>
       </c>
       <c r="F21" t="n" s="8">
-        <v>526902.0</v>
+        <v>533088.0</v>
       </c>
       <c r="G21" t="n" s="9">
-        <v>1.6072664640625856</v>
+        <v>1.6081471151978726</v>
       </c>
       <c r="H21" t="n" s="10">
-        <v>50778.0</v>
+        <v>51289.0</v>
       </c>
       <c r="I21" t="n" s="10">
-        <v>15876.0</v>
+        <v>16049.0</v>
       </c>
       <c r="J21" t="n" s="10">
-        <v>43573.0</v>
+        <v>44101.0</v>
       </c>
     </row>
     <row r="22">
@@ -1197,31 +1197,31 @@
         <v>38</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>315168.0</v>
+        <v>318426.0</v>
       </c>
       <c r="C22" t="n" s="7">
-        <v>0.9613912206552204</v>
+        <v>0.9605840936280646</v>
       </c>
       <c r="D22" t="n" s="6">
-        <v>341435.0</v>
+        <v>345452.0</v>
       </c>
       <c r="E22" t="n" s="7">
-        <v>1.0415163069360316</v>
+        <v>1.0421124415468654</v>
       </c>
       <c r="F22" t="n" s="6">
-        <v>352654.0</v>
+        <v>357212.0</v>
       </c>
       <c r="G22" t="n" s="7">
-        <v>1.0757388425504686</v>
+        <v>1.0775884043798816</v>
       </c>
       <c r="H22" t="n" s="6">
-        <v>37372.0</v>
+        <v>37712.0</v>
       </c>
       <c r="I22" t="n" s="6">
-        <v>39196.0</v>
+        <v>39592.0</v>
       </c>
       <c r="J22" t="n" s="6">
-        <v>41237.0</v>
+        <v>41789.0</v>
       </c>
     </row>
     <row r="23">
@@ -1229,31 +1229,31 @@
         <v>39</v>
       </c>
       <c r="B23" t="n" s="8">
-        <v>211107.0</v>
+        <v>214542.0</v>
       </c>
       <c r="C23" t="n" s="9">
-        <v>0.6439626371295996</v>
+        <v>0.6472010219490626</v>
       </c>
       <c r="D23" t="n" s="8">
-        <v>232274.0</v>
+        <v>235580.0</v>
       </c>
       <c r="E23" t="n" s="9">
-        <v>0.7085306388544227</v>
+        <v>0.7106655887926848</v>
       </c>
       <c r="F23" t="n" s="8">
-        <v>305410.0</v>
+        <v>308839.0</v>
       </c>
       <c r="G23" t="n" s="9">
-        <v>0.9316253322047635</v>
+        <v>0.9316633405940402</v>
       </c>
       <c r="H23" t="n" s="10">
-        <v>34743.0</v>
+        <v>35231.0</v>
       </c>
       <c r="I23" t="n" s="10">
-        <v>38750.0</v>
+        <v>39225.0</v>
       </c>
       <c r="J23" t="n" s="10">
-        <v>58402.0</v>
+        <v>58878.0</v>
       </c>
     </row>
     <row r="24">
@@ -1261,31 +1261,31 @@
         <v>40</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>131217.0</v>
+        <v>132372.0</v>
       </c>
       <c r="C24" t="n" s="7">
-        <v>0.40026548317315225</v>
+        <v>0.39932178164388016</v>
       </c>
       <c r="D24" t="n" s="6">
-        <v>303574.0</v>
+        <v>306630.0</v>
       </c>
       <c r="E24" t="n" s="7">
-        <v>0.9260247817646077</v>
+        <v>0.9249995309088248</v>
       </c>
       <c r="F24" t="n" s="6">
-        <v>171329.0</v>
+        <v>173310.0</v>
       </c>
       <c r="G24" t="n" s="7">
-        <v>0.5226234784103662</v>
+        <v>0.5228179522610588</v>
       </c>
       <c r="H24" t="n" s="6">
-        <v>24418.0</v>
+        <v>24688.0</v>
       </c>
       <c r="I24" t="n" s="6">
-        <v>66476.0</v>
+        <v>67200.0</v>
       </c>
       <c r="J24" t="n" s="6">
-        <v>32763.0</v>
+        <v>33184.0</v>
       </c>
     </row>
     <row r="25">
@@ -1293,31 +1293,31 @@
         <v>41</v>
       </c>
       <c r="B25" t="n" s="8">
-        <v>763684.0</v>
+        <v>771951.0</v>
       </c>
       <c r="C25" t="n" s="9">
-        <v>2.329548345501007</v>
+        <v>2.328716410281441</v>
       </c>
       <c r="D25" t="n" s="8">
-        <v>388549.0</v>
+        <v>393887.0</v>
       </c>
       <c r="E25" t="n" s="9">
-        <v>1.185233264145996</v>
+        <v>1.1882245384700918</v>
       </c>
       <c r="F25" t="n" s="8">
-        <v>346276.0</v>
+        <v>351544.0</v>
       </c>
       <c r="G25" t="n" s="9">
-        <v>1.0562833356292742</v>
+        <v>1.0604899556266898</v>
       </c>
       <c r="H25" t="n" s="10">
-        <v>74483.0</v>
+        <v>75156.0</v>
       </c>
       <c r="I25" t="n" s="10">
-        <v>16513.0</v>
+        <v>16745.0</v>
       </c>
       <c r="J25" t="n" s="10">
-        <v>16535.0</v>
+        <v>16798.0</v>
       </c>
     </row>
     <row r="26">
@@ -1325,31 +1325,31 @@
         <v>42</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>269981.0</v>
+        <v>272460.0</v>
       </c>
       <c r="C26" t="n" s="7">
-        <v>0.8235524010804303</v>
+        <v>0.8219201389016679</v>
       </c>
       <c r="D26" t="n" s="6">
-        <v>292375.0</v>
+        <v>295768.0</v>
       </c>
       <c r="E26" t="n" s="7">
-        <v>0.8918632543249001</v>
+        <v>0.892232531904384</v>
       </c>
       <c r="F26" t="n" s="6">
-        <v>461622.0</v>
+        <v>466566.0</v>
       </c>
       <c r="G26" t="n" s="7">
-        <v>1.4081357817459392</v>
+        <v>1.407472625437846</v>
       </c>
       <c r="H26" t="n" s="6">
-        <v>26309.0</v>
+        <v>26538.0</v>
       </c>
       <c r="I26" t="n" s="6">
-        <v>28592.0</v>
+        <v>28910.0</v>
       </c>
       <c r="J26" t="n" s="6">
-        <v>60162.0</v>
+        <v>60836.0</v>
       </c>
     </row>
     <row r="27">
@@ -1357,31 +1357,31 @@
         <v>43</v>
       </c>
       <c r="B27" t="n" s="8">
-        <v>256150.0</v>
+        <v>258656.0</v>
       </c>
       <c r="C27" t="n" s="9">
-        <v>0.7813621978463383</v>
+        <v>0.7802781158619606</v>
       </c>
       <c r="D27" t="n" s="8">
-        <v>204871.0</v>
+        <v>206429.0</v>
       </c>
       <c r="E27" t="n" s="9">
-        <v>0.6249402882489836</v>
+        <v>0.6227268309231901</v>
       </c>
       <c r="F27" t="n" s="8">
-        <v>308538.0</v>
+        <v>311581.0</v>
       </c>
       <c r="G27" t="n" s="9">
-        <v>0.9411670107324361</v>
+        <v>0.9399350319280649</v>
       </c>
       <c r="H27" t="n" s="10">
-        <v>38684.0</v>
+        <v>39170.0</v>
       </c>
       <c r="I27" t="n" s="10">
-        <v>29071.0</v>
+        <v>29342.0</v>
       </c>
       <c r="J27" t="n" s="10">
-        <v>51662.0</v>
+        <v>52251.0</v>
       </c>
     </row>
     <row r="28">
@@ -1389,31 +1389,31 @@
         <v>44</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>126652.0</v>
+        <v>127717.0</v>
       </c>
       <c r="C28" t="n" s="7">
-        <v>0.3863403672911748</v>
+        <v>0.3852792130224778</v>
       </c>
       <c r="D28" t="n" s="6">
-        <v>261007.0</v>
+        <v>263374.0</v>
       </c>
       <c r="E28" t="n" s="7">
-        <v>0.7961780330793644</v>
+        <v>0.7945107342842541</v>
       </c>
       <c r="F28" t="n" s="6">
-        <v>262651.0</v>
+        <v>265556.0</v>
       </c>
       <c r="G28" t="n" s="7">
-        <v>0.8011929050421183</v>
+        <v>0.8010930940548018</v>
       </c>
       <c r="H28" t="n" s="6">
-        <v>21686.0</v>
+        <v>21926.0</v>
       </c>
       <c r="I28" t="n" s="6">
-        <v>49201.0</v>
+        <v>49729.0</v>
       </c>
       <c r="J28" t="n" s="6">
-        <v>49383.0</v>
+        <v>49985.0</v>
       </c>
     </row>
     <row r="29">
@@ -1421,31 +1421,31 @@
         <v>45</v>
       </c>
       <c r="B29" t="n" s="8">
-        <v>415939.0</v>
+        <v>420664.0</v>
       </c>
       <c r="C29" t="n" s="9">
-        <v>1.268783959437861</v>
+        <v>1.2690017371758466</v>
       </c>
       <c r="D29" t="n" s="8">
-        <v>157391.0</v>
+        <v>159205.0</v>
       </c>
       <c r="E29" t="n" s="9">
-        <v>0.48010688144147184</v>
+        <v>0.4802679135059826</v>
       </c>
       <c r="F29" t="n" s="8">
-        <v>304117.0</v>
+        <v>307159.0</v>
       </c>
       <c r="G29" t="n" s="9">
-        <v>0.92768115370851</v>
+        <v>0.9265953459036093</v>
       </c>
       <c r="H29" t="n" s="10">
-        <v>61478.0</v>
+        <v>62142.0</v>
       </c>
       <c r="I29" t="n" s="10">
-        <v>15005.0</v>
+        <v>15162.0</v>
       </c>
       <c r="J29" t="n" s="10">
-        <v>39005.0</v>
+        <v>39422.0</v>
       </c>
     </row>
     <row r="30">
@@ -1453,31 +1453,31 @@
         <v>46</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>480212.0</v>
+        <v>486182.0</v>
       </c>
       <c r="C30" t="n" s="7">
-        <v>1.4648428801568838</v>
+        <v>1.4666474967756393</v>
       </c>
       <c r="D30" t="n" s="6">
-        <v>809486.0</v>
+        <v>818689.0</v>
       </c>
       <c r="E30" t="n" s="7">
-        <v>2.4692631664487252</v>
+        <v>2.4697092292346308</v>
       </c>
       <c r="F30" t="n" s="6">
-        <v>293503.0</v>
+        <v>297870.0</v>
       </c>
       <c r="G30" t="n" s="7">
-        <v>0.8953041153796362</v>
+        <v>0.8985735585944352</v>
       </c>
       <c r="H30" t="n" s="6">
-        <v>26198.0</v>
+        <v>26494.0</v>
       </c>
       <c r="I30" t="n" s="6">
-        <v>71427.0</v>
+        <v>72169.0</v>
       </c>
       <c r="J30" t="n" s="6">
-        <v>8997.0</v>
+        <v>9129.0</v>
       </c>
     </row>
     <row r="31">
@@ -1485,31 +1485,31 @@
         <v>47</v>
       </c>
       <c r="B31" t="n" s="8">
-        <v>420190.0</v>
+        <v>426183.0</v>
       </c>
       <c r="C31" t="n" s="9">
-        <v>1.2817512469765873</v>
+        <v>1.2856507030666133</v>
       </c>
       <c r="D31" t="n" s="8">
-        <v>803384.0</v>
+        <v>812241.0</v>
       </c>
       <c r="E31" t="n" s="9">
-        <v>2.450649572338796</v>
+        <v>2.450257782946596</v>
       </c>
       <c r="F31" t="n" s="8">
-        <v>460315.0</v>
+        <v>466138.0</v>
       </c>
       <c r="G31" t="n" s="9">
-        <v>1.4041488975273753</v>
+        <v>1.4061814934571888</v>
       </c>
       <c r="H31" t="n" s="10">
-        <v>16370.0</v>
+        <v>16627.0</v>
       </c>
       <c r="I31" t="n" s="10">
-        <v>73880.0</v>
+        <v>74631.0</v>
       </c>
       <c r="J31" t="n" s="10">
-        <v>17846.0</v>
+        <v>18051.0</v>
       </c>
     </row>
     <row r="32">
@@ -1517,31 +1517,31 @@
         <v>48</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>305743.0</v>
+        <v>308992.0</v>
       </c>
       <c r="C32" t="n" s="7">
-        <v>0.9326411183140074</v>
+        <v>0.9321248901104902</v>
       </c>
       <c r="D32" t="n" s="6">
-        <v>906215.0</v>
+        <v>916207.0</v>
       </c>
       <c r="E32" t="n" s="7">
-        <v>2.764326153118561</v>
+        <v>2.763888221033107</v>
       </c>
       <c r="F32" t="n" s="6">
-        <v>180620.0</v>
+        <v>182970.0</v>
       </c>
       <c r="G32" t="n" s="7">
-        <v>0.5509648259808925</v>
+        <v>0.5519589217310363</v>
       </c>
       <c r="H32" t="n" s="6">
-        <v>11912.0</v>
+        <v>12047.0</v>
       </c>
       <c r="I32" t="n" s="6">
-        <v>84790.0</v>
+        <v>85709.0</v>
       </c>
       <c r="J32" t="n" s="6">
-        <v>5907.0</v>
+        <v>6023.0</v>
       </c>
     </row>
     <row r="33">
@@ -1549,31 +1549,31 @@
         <v>49</v>
       </c>
       <c r="B33" t="n" s="8">
-        <v>778939.0</v>
+        <v>788512.0</v>
       </c>
       <c r="C33" t="n" s="9">
-        <v>2.3760823307758296</v>
+        <v>2.378675374607766</v>
       </c>
       <c r="D33" t="n" s="8">
-        <v>953548.0</v>
+        <v>962532.0</v>
       </c>
       <c r="E33" t="n" s="9">
-        <v>2.9087111498418117</v>
+        <v>2.9036351579582327</v>
       </c>
       <c r="F33" t="n" s="8">
-        <v>620817.0</v>
+        <v>628822.0</v>
       </c>
       <c r="G33" t="n" s="9">
-        <v>1.8937456005479998</v>
+        <v>1.8969443793012721</v>
       </c>
       <c r="H33" t="n" s="10">
-        <v>33579.0</v>
+        <v>34092.0</v>
       </c>
       <c r="I33" t="n" s="10">
-        <v>57200.0</v>
+        <v>57618.0</v>
       </c>
       <c r="J33" t="n" s="10">
-        <v>17143.0</v>
+        <v>17420.0</v>
       </c>
     </row>
     <row r="34">
@@ -1581,31 +1581,31 @@
         <v>50</v>
       </c>
       <c r="B34" t="n" s="6">
-        <v>1423774.0</v>
+        <v>1439462.0</v>
       </c>
       <c r="C34" t="n" s="7">
-        <v>4.343092648356324</v>
+        <v>4.342372483974428</v>
       </c>
       <c r="D34" t="n" s="6">
-        <v>416793.0</v>
+        <v>421919.0</v>
       </c>
       <c r="E34" t="n" s="7">
-        <v>1.2713890084988049</v>
+        <v>1.2727876498761388</v>
       </c>
       <c r="F34" t="n" s="6">
-        <v>675150.0</v>
+        <v>682812.0</v>
       </c>
       <c r="G34" t="n" s="7">
-        <v>2.0594834584265285</v>
+        <v>2.0598140420014888</v>
       </c>
       <c r="H34" t="n" s="6">
-        <v>79856.0</v>
+        <v>80708.0</v>
       </c>
       <c r="I34" t="n" s="6">
-        <v>5604.0</v>
+        <v>5691.0</v>
       </c>
       <c r="J34" t="n" s="6">
-        <v>14139.0</v>
+        <v>14301.0</v>
       </c>
     </row>
     <row r="35">
@@ -1613,31 +1613,31 @@
         <v>51</v>
       </c>
       <c r="B35" t="n" s="8">
-        <v>341466.0</v>
+        <v>345871.0</v>
       </c>
       <c r="C35" t="n" s="9">
-        <v>1.0416108696068622</v>
+        <v>1.0433764235559668</v>
       </c>
       <c r="D35" t="n" s="8">
-        <v>194885.0</v>
+        <v>197040.0</v>
       </c>
       <c r="E35" t="n" s="9">
-        <v>0.5944789066066118</v>
+        <v>0.5944033772633951</v>
       </c>
       <c r="F35" t="n" s="8">
-        <v>287861.0</v>
+        <v>291330.0</v>
       </c>
       <c r="G35" t="n" s="9">
-        <v>0.8780937092884824</v>
+        <v>0.8788445792638291</v>
       </c>
       <c r="H35" t="n" s="10">
-        <v>53344.0</v>
+        <v>53947.0</v>
       </c>
       <c r="I35" t="n" s="10">
-        <v>24231.0</v>
+        <v>24457.0</v>
       </c>
       <c r="J35" t="n" s="10">
-        <v>40223.0</v>
+        <v>40666.0</v>
       </c>
     </row>
     <row r="36">
@@ -1645,31 +1645,31 @@
         <v>52</v>
       </c>
       <c r="B36" t="n" s="6">
-        <v>736291.0</v>
+        <v>744956.0</v>
       </c>
       <c r="C36" t="n" s="7">
-        <v>2.2459884989829324</v>
+        <v>2.2472815789313323</v>
       </c>
       <c r="D36" t="n" s="6">
-        <v>625794.0</v>
+        <v>632233.0</v>
       </c>
       <c r="E36" t="n" s="7">
-        <v>1.9089274848294022</v>
+        <v>1.9072342185209503</v>
       </c>
       <c r="F36" t="n" s="6">
-        <v>204271.0</v>
+        <v>206837.0</v>
       </c>
       <c r="G36" t="n" s="7">
-        <v>0.6231100430071027</v>
+        <v>0.6239576296337234</v>
       </c>
       <c r="H36" t="n" s="6">
-        <v>57565.0</v>
+        <v>58238.0</v>
       </c>
       <c r="I36" t="n" s="6">
-        <v>43192.0</v>
+        <v>43630.0</v>
       </c>
       <c r="J36" t="n" s="6">
-        <v>5788.0</v>
+        <v>5860.0</v>
       </c>
     </row>
     <row r="37">
@@ -1677,31 +1677,31 @@
         <v>53</v>
       </c>
       <c r="B37" t="n" s="8">
-        <v>1146629.0</v>
+        <v>1158565.0</v>
       </c>
       <c r="C37" t="n" s="9">
-        <v>3.4976871190878347</v>
+        <v>3.4950007550708753</v>
       </c>
       <c r="D37" t="n" s="8">
-        <v>282027.0</v>
+        <v>284981.0</v>
       </c>
       <c r="E37" t="n" s="9">
-        <v>0.8602976247199268</v>
+        <v>0.859691782662909</v>
       </c>
       <c r="F37" t="n" s="8">
-        <v>605177.0</v>
+        <v>612172.0</v>
       </c>
       <c r="G37" t="n" s="9">
-        <v>1.8460372079096368</v>
+        <v>1.8467169319228944</v>
       </c>
       <c r="H37" t="n" s="10">
-        <v>77927.0</v>
+        <v>78729.0</v>
       </c>
       <c r="I37" t="n" s="10">
-        <v>4410.0</v>
+        <v>4466.0</v>
       </c>
       <c r="J37" t="n" s="10">
-        <v>20746.0</v>
+        <v>21018.0</v>
       </c>
     </row>
     <row r="38">
@@ -1709,31 +1709,31 @@
         <v>54</v>
       </c>
       <c r="B38" t="n" s="6">
-        <v>666605.0</v>
+        <v>674003.0</v>
       </c>
       <c r="C38" t="n" s="7">
-        <v>2.0334177157734072</v>
+        <v>2.0332402531752947</v>
       </c>
       <c r="D38" t="n" s="6">
-        <v>280386.0</v>
+        <v>283866.0</v>
       </c>
       <c r="E38" t="n" s="7">
-        <v>0.8552919039833823</v>
+        <v>0.8563282028534862</v>
       </c>
       <c r="F38" t="n" s="6">
-        <v>470875.0</v>
+        <v>475271.0</v>
       </c>
       <c r="G38" t="n" s="7">
-        <v>1.4363612137844797</v>
+        <v>1.4337326812593942</v>
       </c>
       <c r="H38" t="n" s="6">
-        <v>62961.0</v>
+        <v>63685.0</v>
       </c>
       <c r="I38" t="n" s="6">
-        <v>13828.0</v>
+        <v>14015.0</v>
       </c>
       <c r="J38" t="n" s="6">
-        <v>33337.0</v>
+        <v>33619.0</v>
       </c>
     </row>
     <row r="39">
@@ -1741,31 +1741,31 @@
         <v>55</v>
       </c>
       <c r="B39" t="n" s="8">
-        <v>353058.0</v>
+        <v>357210.0</v>
       </c>
       <c r="C39" t="n" s="9">
-        <v>1.0769712076800018</v>
+        <v>1.0775823710528691</v>
       </c>
       <c r="D39" t="n" s="8">
-        <v>195278.0</v>
+        <v>197614.0</v>
       </c>
       <c r="E39" t="n" s="9">
-        <v>0.5956777172400438</v>
+        <v>0.596134942115959</v>
       </c>
       <c r="F39" t="n" s="8">
-        <v>201571.0</v>
+        <v>203751.0</v>
       </c>
       <c r="G39" t="n" s="9">
-        <v>0.6148739394186384</v>
+        <v>0.6146482060535627</v>
       </c>
       <c r="H39" t="n" s="10">
-        <v>62897.0</v>
+        <v>63593.0</v>
       </c>
       <c r="I39" t="n" s="10">
-        <v>26938.0</v>
+        <v>27266.0</v>
       </c>
       <c r="J39" t="n" s="10">
-        <v>28106.0</v>
+        <v>28392.0</v>
       </c>
     </row>
     <row r="40">
@@ -1773,31 +1773,31 @@
         <v>56</v>
       </c>
       <c r="B40" t="n" s="6">
-        <v>310110.0</v>
+        <v>313034.0</v>
       </c>
       <c r="C40" t="n" s="7">
-        <v>0.9459622532661641</v>
+        <v>0.9443182440025865</v>
       </c>
       <c r="D40" t="n" s="6">
-        <v>268738.0</v>
+        <v>271058.0</v>
       </c>
       <c r="E40" t="n" s="7">
-        <v>0.8197607430210004</v>
+        <v>0.817690776665963</v>
       </c>
       <c r="F40" t="n" s="6">
-        <v>217570.0</v>
+        <v>219466.0</v>
       </c>
       <c r="G40" t="n" s="7">
-        <v>0.6636774287933938</v>
+        <v>0.6620550730536351</v>
       </c>
       <c r="H40" t="n" s="6">
-        <v>48362.0</v>
+        <v>48922.0</v>
       </c>
       <c r="I40" t="n" s="6">
-        <v>43411.0</v>
+        <v>43847.0</v>
       </c>
       <c r="J40" t="n" s="6">
-        <v>29404.0</v>
+        <v>29736.0</v>
       </c>
     </row>
     <row r="41">
@@ -1805,31 +1805,31 @@
         <v>57</v>
       </c>
       <c r="B41" t="n" s="8">
-        <v>1125373.0</v>
+        <v>1136387.0</v>
       </c>
       <c r="C41" t="n" s="9">
-        <v>3.432847630985466</v>
+        <v>3.4280971918301755</v>
       </c>
       <c r="D41" t="n" s="8">
-        <v>300667.0</v>
+        <v>304142.0</v>
       </c>
       <c r="E41" t="n" s="9">
-        <v>0.9171572435676946</v>
+        <v>0.9174940721053771</v>
       </c>
       <c r="F41" t="n" s="8">
-        <v>409976.0</v>
+        <v>414385.0</v>
       </c>
       <c r="G41" t="n" s="9">
-        <v>1.2505943721423007</v>
+        <v>1.2500601070203612</v>
       </c>
       <c r="H41" t="n" s="10">
-        <v>84471.0</v>
+        <v>85373.0</v>
       </c>
       <c r="I41" t="n" s="10">
-        <v>5372.0</v>
+        <v>5464.0</v>
       </c>
       <c r="J41" t="n" s="10">
-        <v>11082.0</v>
+        <v>11223.0</v>
       </c>
     </row>
     <row r="42">
@@ -1837,31 +1837,31 @@
         <v>58</v>
       </c>
       <c r="B42" t="n" s="6">
-        <v>901825.0</v>
+        <v>912065.0</v>
       </c>
       <c r="C42" t="n" s="7">
-        <v>2.7509348587654654</v>
+        <v>2.7513932007903903</v>
       </c>
       <c r="D42" t="n" s="6">
-        <v>353722.0</v>
+        <v>357577.0</v>
       </c>
       <c r="E42" t="n" s="7">
-        <v>1.0789966790810168</v>
+        <v>1.078689486559648</v>
       </c>
       <c r="F42" t="n" s="6">
-        <v>597726.0</v>
+        <v>604107.0</v>
       </c>
       <c r="G42" t="n" s="7">
-        <v>1.823308612414212</v>
+        <v>1.8223875407453196</v>
       </c>
       <c r="H42" t="n" s="6">
-        <v>65464.0</v>
+        <v>66218.0</v>
       </c>
       <c r="I42" t="n" s="6">
-        <v>7877.0</v>
+        <v>7962.0</v>
       </c>
       <c r="J42" t="n" s="6">
-        <v>32521.0</v>
+        <v>32813.0</v>
       </c>
     </row>
     <row r="43">
@@ -1869,31 +1869,31 @@
         <v>59</v>
       </c>
       <c r="B43" t="n" s="8">
-        <v>300784.0</v>
+        <v>304392.0</v>
       </c>
       <c r="C43" t="n" s="9">
-        <v>0.9175141413898614</v>
+        <v>0.9182482379819292</v>
       </c>
       <c r="D43" t="n" s="8">
-        <v>184498.0</v>
+        <v>186259.0</v>
       </c>
       <c r="E43" t="n" s="9">
-        <v>0.5627943110609163</v>
+        <v>0.5618807280029573</v>
       </c>
       <c r="F43" t="n" s="8">
-        <v>335535.0</v>
+        <v>338983.0</v>
       </c>
       <c r="G43" t="n" s="9">
-        <v>1.0235188953908692</v>
+        <v>1.0225976453252004</v>
       </c>
       <c r="H43" t="n" s="10">
-        <v>43719.0</v>
+        <v>44290.0</v>
       </c>
       <c r="I43" t="n" s="10">
-        <v>19638.0</v>
+        <v>19842.0</v>
       </c>
       <c r="J43" t="n" s="10">
-        <v>53309.0</v>
+        <v>53850.0</v>
       </c>
     </row>
     <row r="44">
@@ -1901,31 +1901,31 @@
         <v>60</v>
       </c>
       <c r="B44" t="n" s="6">
-        <v>468334.0</v>
+        <v>472722.0</v>
       </c>
       <c r="C44" t="n" s="7">
-        <v>1.4286101251851142</v>
+        <v>1.4260432059820678</v>
       </c>
       <c r="D44" t="n" s="6">
-        <v>282679.0</v>
+        <v>285927.0</v>
       </c>
       <c r="E44" t="n" s="7">
-        <v>0.862286491216104</v>
+        <v>0.8625455463397826</v>
       </c>
       <c r="F44" t="n" s="6">
-        <v>292778.0</v>
+        <v>296337.0</v>
       </c>
       <c r="G44" t="n" s="7">
-        <v>0.8930925690456967</v>
+        <v>0.8939490134394169</v>
       </c>
       <c r="H44" t="n" s="6">
-        <v>68125.0</v>
+        <v>68751.0</v>
       </c>
       <c r="I44" t="n" s="6">
-        <v>26748.0</v>
+        <v>27068.0</v>
       </c>
       <c r="J44" t="n" s="6">
-        <v>29943.0</v>
+        <v>30351.0</v>
       </c>
     </row>
     <row r="45">
@@ -1933,31 +1933,31 @@
         <v>61</v>
       </c>
       <c r="B45" t="n" s="8">
-        <v>418899.0</v>
+        <v>424128.0</v>
       </c>
       <c r="C45" t="n" s="9">
-        <v>1.277813169297807</v>
+        <v>1.2794514595613542</v>
       </c>
       <c r="D45" t="n" s="8">
-        <v>184673.0</v>
+        <v>186696.0</v>
       </c>
       <c r="E45" t="n" s="9">
-        <v>0.5633281325897983</v>
+        <v>0.5631990099551706</v>
       </c>
       <c r="F45" t="n" s="8">
-        <v>333547.0</v>
+        <v>337155.0</v>
       </c>
       <c r="G45" t="n" s="9">
-        <v>1.0174546828227702</v>
+        <v>1.0170831844358506</v>
       </c>
       <c r="H45" t="n" s="10">
-        <v>57274.0</v>
+        <v>57938.0</v>
       </c>
       <c r="I45" t="n" s="10">
-        <v>18243.0</v>
+        <v>18452.0</v>
       </c>
       <c r="J45" t="n" s="10">
-        <v>42241.0</v>
+        <v>42674.0</v>
       </c>
     </row>
     <row r="46">
@@ -1965,31 +1965,31 @@
         <v>62</v>
       </c>
       <c r="B46" t="n" s="6">
-        <v>540112.0</v>
+        <v>546138.0</v>
       </c>
       <c r="C46" t="n" s="7">
-        <v>1.6475623634713312</v>
+        <v>1.6475145739538979</v>
       </c>
       <c r="D46" t="n" s="6">
-        <v>382242.0</v>
+        <v>386419.0</v>
       </c>
       <c r="E46" t="n" s="7">
-        <v>1.1659943362450909</v>
+        <v>1.165696095405724</v>
       </c>
       <c r="F46" t="n" s="6">
-        <v>176287.0</v>
+        <v>178196.0</v>
       </c>
       <c r="G46" t="n" s="7">
-        <v>0.5377474049257756</v>
+        <v>0.5375573701523952</v>
       </c>
       <c r="H46" t="n" s="6">
-        <v>67750.0</v>
+        <v>68522.0</v>
       </c>
       <c r="I46" t="n" s="6">
-        <v>32689.0</v>
+        <v>33047.0</v>
       </c>
       <c r="J46" t="n" s="6">
-        <v>11099.0</v>
+        <v>11210.0</v>
       </c>
     </row>
     <row r="47">
@@ -1997,31 +1997,31 @@
         <v>63</v>
       </c>
       <c r="B47" t="n" s="8">
-        <v>349031.0</v>
+        <v>353829.0</v>
       </c>
       <c r="C47" t="n" s="9">
-        <v>1.0646872116982442</v>
+        <v>1.067383031738377</v>
       </c>
       <c r="D47" t="n" s="8">
-        <v>289505.0</v>
+        <v>293182.0</v>
       </c>
       <c r="E47" t="n" s="9">
-        <v>0.8831085812512361</v>
+        <v>0.884431440077328</v>
       </c>
       <c r="F47" t="n" s="8">
-        <v>211637.0</v>
+        <v>213896.0</v>
       </c>
       <c r="G47" t="n" s="9">
-        <v>0.6455793537599277</v>
+        <v>0.6452522573240517</v>
       </c>
       <c r="H47" t="n" s="10">
-        <v>52142.0</v>
+        <v>52807.0</v>
       </c>
       <c r="I47" t="n" s="10">
-        <v>40377.0</v>
+        <v>40754.0</v>
       </c>
       <c r="J47" t="n" s="10">
-        <v>24366.0</v>
+        <v>24558.0</v>
       </c>
     </row>
     <row r="48">
@@ -2029,31 +2029,31 @@
         <v>64</v>
       </c>
       <c r="B48" t="n" s="6">
-        <v>410085.0</v>
+        <v>414287.0</v>
       </c>
       <c r="C48" t="n" s="7">
-        <v>1.2509268666945759</v>
+        <v>1.2497644739967526</v>
       </c>
       <c r="D48" t="n" s="6">
-        <v>428677.0</v>
+        <v>434136.0</v>
       </c>
       <c r="E48" t="n" s="7">
-        <v>1.3076400659229932</v>
+        <v>1.3096422279314925</v>
       </c>
       <c r="F48" t="n" s="6">
-        <v>118636.0</v>
+        <v>120063.0</v>
       </c>
       <c r="G48" t="n" s="7">
-        <v>0.36188829085964547</v>
+        <v>0.3621896705459552</v>
       </c>
       <c r="H48" t="n" s="6">
-        <v>50871.0</v>
+        <v>51339.0</v>
       </c>
       <c r="I48" t="n" s="6">
-        <v>54594.0</v>
+        <v>55279.0</v>
       </c>
       <c r="J48" t="n" s="6">
-        <v>9106.0</v>
+        <v>9208.0</v>
       </c>
     </row>
     <row r="49">
@@ -2061,31 +2061,31 @@
         <v>65</v>
       </c>
       <c r="B49" t="n" s="8">
-        <v>751370.0</v>
+        <v>758789.0</v>
       </c>
       <c r="C49" t="n" s="9">
-        <v>2.291985612320137</v>
+        <v>2.28901108521272</v>
       </c>
       <c r="D49" t="n" s="8">
-        <v>410029.0</v>
+        <v>414609.0</v>
       </c>
       <c r="E49" t="n" s="9">
-        <v>1.2507560438053336</v>
+        <v>1.250735839645752</v>
       </c>
       <c r="F49" t="n" s="8">
-        <v>514597.0</v>
+        <v>519658.0</v>
       </c>
       <c r="G49" t="n" s="9">
-        <v>1.5697311845603439</v>
+        <v>1.567633324309487</v>
       </c>
       <c r="H49" t="n" s="10">
-        <v>66656.0</v>
+        <v>67337.0</v>
       </c>
       <c r="I49" t="n" s="10">
-        <v>15598.0</v>
+        <v>15837.0</v>
       </c>
       <c r="J49" t="n" s="10">
-        <v>26150.0</v>
+        <v>26446.0</v>
       </c>
     </row>
     <row r="50">
@@ -2096,28 +2096,28 @@
         <v>179.0</v>
       </c>
       <c r="C50" t="n" s="7">
-        <v>5.46023163827814E-4</v>
+        <v>5.399827676113872E-4</v>
       </c>
       <c r="D50" t="n" s="6">
-        <v>546617.0</v>
+        <v>553447.0</v>
       </c>
       <c r="E50" t="n" s="7">
-        <v>1.667405272302057</v>
+        <v>1.6695633675207786</v>
       </c>
       <c r="F50" t="n" s="6">
-        <v>919372.0</v>
+        <v>929961.0</v>
       </c>
       <c r="G50" t="n" s="7">
-        <v>2.804460380864273</v>
+        <v>2.805379410897504</v>
       </c>
       <c r="H50" t="n" s="6">
         <v>382.0</v>
       </c>
       <c r="I50" t="n" s="6">
-        <v>25434.0</v>
+        <v>25762.0</v>
       </c>
       <c r="J50" t="n" s="6">
-        <v>77563.0</v>
+        <v>78343.0</v>
       </c>
     </row>
     <row r="51">
@@ -2125,31 +2125,31 @@
         <v>67</v>
       </c>
       <c r="B51" t="n" s="8">
-        <v>333577.0</v>
+        <v>337311.0</v>
       </c>
       <c r="C51" t="n" s="9">
-        <v>1.017546195084864</v>
+        <v>1.017553783942819</v>
       </c>
       <c r="D51" t="n" s="8">
-        <v>392247.0</v>
+        <v>396708.0</v>
       </c>
       <c r="E51" t="n" s="9">
-        <v>1.1965136756534556</v>
+        <v>1.196734546221107</v>
       </c>
       <c r="F51" t="n" s="8">
-        <v>539921.0</v>
+        <v>546843.0</v>
       </c>
       <c r="G51" t="n" s="9">
-        <v>1.6469797354026656</v>
+        <v>1.649641321725775</v>
       </c>
       <c r="H51" t="n" s="10">
-        <v>24932.0</v>
+        <v>25153.0</v>
       </c>
       <c r="I51" t="n" s="10">
-        <v>35858.0</v>
+        <v>36180.0</v>
       </c>
       <c r="J51" t="n" s="10">
-        <v>56766.0</v>
+        <v>57438.0</v>
       </c>
     </row>
     <row r="52">
@@ -2160,28 +2160,28 @@
         <v>137.0</v>
       </c>
       <c r="C52" t="n" s="7">
-        <v>4.179059968961481E-4</v>
+        <v>4.132829003506147E-4</v>
       </c>
       <c r="D52" t="n" s="6">
-        <v>1045166.0</v>
+        <v>1056859.0</v>
       </c>
       <c r="E52" t="n" s="7">
-        <v>3.1881834974595584</v>
+        <v>3.1881879765083965</v>
       </c>
       <c r="F52" t="n" s="6">
-        <v>339856.0</v>
+        <v>343884.0</v>
       </c>
       <c r="G52" t="n" s="7">
-        <v>1.0366997115411483</v>
+        <v>1.03738231316913</v>
       </c>
       <c r="H52" t="n" s="6">
-        <v>706.0</v>
+        <v>712.0</v>
       </c>
       <c r="I52" t="n" s="6">
-        <v>87871.0</v>
+        <v>88842.0</v>
       </c>
       <c r="J52" t="n" s="6">
-        <v>10190.0</v>
+        <v>10298.0</v>
       </c>
     </row>
     <row r="53">
@@ -2189,31 +2189,31 @@
         <v>69</v>
       </c>
       <c r="B53" t="n" s="8">
-        <v>707970.0</v>
+        <v>716317.0</v>
       </c>
       <c r="C53" t="n" s="9">
-        <v>2.159597873157416</v>
+        <v>2.1608873527770167</v>
       </c>
       <c r="D53" t="n" s="8">
-        <v>515535.0</v>
+        <v>520474.0</v>
       </c>
       <c r="E53" t="n" s="9">
-        <v>1.572592467955151</v>
+        <v>1.5700949217305538</v>
       </c>
       <c r="F53" t="n" s="8">
-        <v>1004599.0</v>
+        <v>1015400.0</v>
       </c>
       <c r="G53" t="n" s="9">
-        <v>3.0644375662472516</v>
+        <v>3.063120124204483</v>
       </c>
       <c r="H53" t="n" s="10">
-        <v>27499.0</v>
+        <v>27845.0</v>
       </c>
       <c r="I53" t="n" s="10">
-        <v>11157.0</v>
+        <v>11262.0</v>
       </c>
       <c r="J53" t="n" s="10">
-        <v>66840.0</v>
+        <v>67530.0</v>
       </c>
     </row>
     <row r="54">
@@ -2221,31 +2221,31 @@
         <v>70</v>
       </c>
       <c r="B54" t="n" s="6">
-        <v>346061.0</v>
+        <v>350382.0</v>
       </c>
       <c r="C54" t="n" s="7">
-        <v>1.0556274977509337</v>
+        <v>1.056984592632475</v>
       </c>
       <c r="D54" t="n" s="6">
-        <v>530779.0</v>
+        <v>537451.0</v>
       </c>
       <c r="E54" t="n" s="7">
-        <v>1.6190928987338729</v>
+        <v>1.6213088180754616</v>
       </c>
       <c r="F54" t="n" s="6">
-        <v>749943.0</v>
+        <v>758196.0</v>
       </c>
       <c r="G54" t="n" s="7">
-        <v>2.287632679053197</v>
+        <v>2.287222203753538</v>
       </c>
       <c r="H54" t="n" s="6">
-        <v>12181.0</v>
+        <v>12331.0</v>
       </c>
       <c r="I54" t="n" s="6">
-        <v>29297.0</v>
+        <v>29677.0</v>
       </c>
       <c r="J54" t="n" s="6">
-        <v>65136.0</v>
+        <v>65790.0</v>
       </c>
     </row>
     <row r="55">
@@ -2253,31 +2253,31 @@
         <v>71</v>
       </c>
       <c r="B55" t="n" s="8">
-        <v>389539.0</v>
+        <v>393619.0</v>
       </c>
       <c r="C55" t="n" s="9">
-        <v>1.1882531687950995</v>
+        <v>1.187416072650428</v>
       </c>
       <c r="D55" t="n" s="8">
-        <v>457429.0</v>
+        <v>463185.0</v>
       </c>
       <c r="E55" t="n" s="9">
-        <v>1.395345417913928</v>
+        <v>1.3972732861233539</v>
       </c>
       <c r="F55" t="n" s="8">
-        <v>688821.0</v>
+        <v>696736.0</v>
       </c>
       <c r="G55" t="n" s="9">
-        <v>2.1011855962627854</v>
+        <v>2.101818064661941</v>
       </c>
       <c r="H55" t="n" s="10">
-        <v>20087.0</v>
+        <v>20236.0</v>
       </c>
       <c r="I55" t="n" s="10">
-        <v>28052.0</v>
+        <v>28397.0</v>
       </c>
       <c r="J55" t="n" s="10">
-        <v>63369.0</v>
+        <v>64073.0</v>
       </c>
     </row>
     <row r="56">
@@ -2285,31 +2285,31 @@
         <v>72</v>
       </c>
       <c r="B56" t="n" s="6">
-        <v>217256.0</v>
+        <v>219475.0</v>
       </c>
       <c r="C56" t="n" s="7">
-        <v>0.6627196004501427</v>
+        <v>0.6620822230251909</v>
       </c>
       <c r="D56" t="n" s="6">
-        <v>452508.0</v>
+        <v>457192.0</v>
       </c>
       <c r="E56" t="n" s="7">
-        <v>1.3803343565217678</v>
+        <v>1.3791944217306442</v>
       </c>
       <c r="F56" t="n" s="6">
-        <v>415510.0</v>
+        <v>419564.0</v>
       </c>
       <c r="G56" t="n" s="7">
-        <v>1.267475334089916</v>
+        <v>1.265683407319017</v>
       </c>
       <c r="H56" t="n" s="6">
-        <v>13740.0</v>
+        <v>13920.0</v>
       </c>
       <c r="I56" t="n" s="6">
-        <v>51451.0</v>
+        <v>52024.0</v>
       </c>
       <c r="J56" t="n" s="6">
-        <v>46865.0</v>
+        <v>47369.0</v>
       </c>
     </row>
     <row r="57">
@@ -2317,31 +2317,31 @@
         <v>73</v>
       </c>
       <c r="B57" t="n" s="8">
-        <v>1040145.0</v>
+        <v>1051324.0</v>
       </c>
       <c r="C57" t="n" s="9">
-        <v>3.1728673951937516</v>
+        <v>3.17149074400153</v>
       </c>
       <c r="D57" t="n" s="8">
-        <v>543523.0</v>
+        <v>551165.0</v>
       </c>
       <c r="E57" t="n" s="9">
-        <v>1.6579673076714243</v>
+        <v>1.66267934139961</v>
       </c>
       <c r="F57" t="n" s="8">
-        <v>844705.0</v>
+        <v>854913.0</v>
       </c>
       <c r="G57" t="n" s="9">
-        <v>2.5766955117384</v>
+        <v>2.578984848083541</v>
       </c>
       <c r="H57" t="n" s="10">
-        <v>60075.0</v>
+        <v>60622.0</v>
       </c>
       <c r="I57" t="n" s="10">
-        <v>9126.0</v>
+        <v>9296.0</v>
       </c>
       <c r="J57" t="n" s="10">
-        <v>34719.0</v>
+        <v>35172.0</v>
       </c>
     </row>
     <row r="58">
@@ -2352,28 +2352,28 @@
         <v>106.0</v>
       </c>
       <c r="C58" t="n" s="7">
-        <v>3.2334332606563285E-4</v>
+        <v>3.1976633165813984E-4</v>
       </c>
       <c r="D58" t="n" s="6">
-        <v>592429.0</v>
+        <v>599146.0</v>
       </c>
       <c r="E58" t="n" s="7">
-        <v>1.8071505973371396</v>
+        <v>1.8074218730910177</v>
       </c>
       <c r="F58" t="n" s="6">
-        <v>986214.0</v>
+        <v>997728.0</v>
       </c>
       <c r="G58" t="n" s="7">
-        <v>3.0083558016272836</v>
+        <v>3.00980964672276</v>
       </c>
       <c r="H58" t="n" s="6">
-        <v>241.0</v>
+        <v>245.0</v>
       </c>
       <c r="I58" t="n" s="6">
-        <v>27782.0</v>
+        <v>28074.0</v>
       </c>
       <c r="J58" t="n" s="6">
-        <v>73325.0</v>
+        <v>74133.0</v>
       </c>
     </row>
     <row r="59">
@@ -2381,31 +2381,31 @@
         <v>75</v>
       </c>
       <c r="B59" t="n" s="8">
-        <v>199818.0</v>
+        <v>201964.0</v>
       </c>
       <c r="C59" t="n" s="9">
-        <v>0.6095265729036096</v>
+        <v>0.6092574283679675</v>
       </c>
       <c r="D59" t="n" s="8">
-        <v>460359.0</v>
+        <v>464872.0</v>
       </c>
       <c r="E59" t="n" s="9">
-        <v>1.4042831155117799</v>
+        <v>1.4023623974583284</v>
       </c>
       <c r="F59" t="n" s="8">
-        <v>893050.0</v>
+        <v>903029.0</v>
       </c>
       <c r="G59" t="n" s="9">
-        <v>2.7241675221029564</v>
+        <v>2.7241346293482867</v>
       </c>
       <c r="H59" t="n" s="10">
-        <v>5793.0</v>
+        <v>5873.0</v>
       </c>
       <c r="I59" t="n" s="10">
-        <v>19522.0</v>
+        <v>19735.0</v>
       </c>
       <c r="J59" t="n" s="10">
-        <v>79143.0</v>
+        <v>80010.0</v>
       </c>
     </row>
     <row r="60">
@@ -2413,31 +2413,31 @@
         <v>76</v>
       </c>
       <c r="B60" t="n" s="6">
-        <v>317450.0</v>
+        <v>321295.0</v>
       </c>
       <c r="C60" t="n" s="7">
-        <v>0.968352253391841</v>
+        <v>0.9692389012273779</v>
       </c>
       <c r="D60" t="n" s="6">
-        <v>551797.0</v>
+        <v>557340.0</v>
       </c>
       <c r="E60" t="n" s="7">
-        <v>1.6832063895569622</v>
+        <v>1.6813072385504497</v>
       </c>
       <c r="F60" t="n" s="6">
-        <v>671329.0</v>
+        <v>678670.0</v>
       </c>
       <c r="G60" t="n" s="7">
-        <v>2.0478278466444833</v>
+        <v>2.0473190217587716</v>
       </c>
       <c r="H60" t="n" s="6">
-        <v>13853.0</v>
+        <v>14061.0</v>
       </c>
       <c r="I60" t="n" s="6">
-        <v>41763.0</v>
+        <v>42177.0</v>
       </c>
       <c r="J60" t="n" s="6">
-        <v>53418.0</v>
+        <v>54026.0</v>
       </c>
     </row>
     <row r="61">
@@ -2445,31 +2445,31 @@
         <v>77</v>
       </c>
       <c r="B61" t="n" s="8">
-        <v>321287.0</v>
+        <v>325009.0</v>
       </c>
       <c r="C61" t="n" s="9">
-        <v>0.9800566717136696</v>
+        <v>0.9804427894894375</v>
       </c>
       <c r="D61" t="n" s="8">
-        <v>368397.0</v>
+        <v>371651.0</v>
       </c>
       <c r="E61" t="n" s="9">
-        <v>1.1237614272886882</v>
+        <v>1.1211460087460314</v>
       </c>
       <c r="F61" t="n" s="8">
-        <v>851292.0</v>
+        <v>860652.0</v>
       </c>
       <c r="G61" t="n" s="9">
-        <v>2.5967885540855162</v>
+        <v>2.5962974799456737</v>
       </c>
       <c r="H61" t="n" s="10">
-        <v>10182.0</v>
+        <v>10323.0</v>
       </c>
       <c r="I61" t="n" s="10">
-        <v>14065.0</v>
+        <v>14171.0</v>
       </c>
       <c r="J61" t="n" s="10">
-        <v>79915.0</v>
+        <v>80787.0</v>
       </c>
     </row>
     <row r="62">
@@ -2477,31 +2477,31 @@
         <v>78</v>
       </c>
       <c r="B62" t="n" s="6">
-        <v>1081199.0</v>
+        <v>1092136.0</v>
       </c>
       <c r="C62" t="n" s="7">
-        <v>3.2980988754607186</v>
+        <v>3.2946068150169268</v>
       </c>
       <c r="D62" t="n" s="6">
-        <v>776193.0</v>
+        <v>785104.0</v>
       </c>
       <c r="E62" t="n" s="7">
-        <v>2.367705908385488</v>
+        <v>2.368394585378606</v>
       </c>
       <c r="F62" t="n" s="6">
-        <v>410613.0</v>
+        <v>414848.0</v>
       </c>
       <c r="G62" t="n" s="7">
-        <v>1.2525374825074311</v>
+        <v>1.2514568222237359</v>
       </c>
       <c r="H62" t="n" s="6">
-        <v>67083.0</v>
+        <v>67763.0</v>
       </c>
       <c r="I62" t="n" s="6">
-        <v>31453.0</v>
+        <v>31871.0</v>
       </c>
       <c r="J62" t="n" s="6">
-        <v>5962.0</v>
+        <v>6026.0</v>
       </c>
     </row>
     <row r="63">
@@ -2509,31 +2509,31 @@
         <v>79</v>
       </c>
       <c r="B63" t="n" s="8">
-        <v>551573.0</v>
+        <v>557756.0</v>
       </c>
       <c r="C63" t="n" s="9">
-        <v>1.6825230979999934</v>
+        <v>1.6825621705690328</v>
       </c>
       <c r="D63" t="n" s="8">
-        <v>839717.0</v>
+        <v>849054.0</v>
       </c>
       <c r="E63" t="n" s="9">
-        <v>2.5614800729608964</v>
+        <v>2.561310216600663</v>
       </c>
       <c r="F63" t="n" s="8">
-        <v>869492.0</v>
+        <v>878432.0</v>
       </c>
       <c r="G63" t="n" s="9">
-        <v>2.6523059930892376</v>
+        <v>2.649933757086067</v>
       </c>
       <c r="H63" t="n" s="10">
-        <v>14456.0</v>
+        <v>14611.0</v>
       </c>
       <c r="I63" t="n" s="10">
-        <v>45795.0</v>
+        <v>46356.0</v>
       </c>
       <c r="J63" t="n" s="10">
-        <v>45916.0</v>
+        <v>46356.0</v>
       </c>
     </row>
     <row r="64">
@@ -2541,31 +2541,31 @@
         <v>80</v>
       </c>
       <c r="B64" t="n" s="6">
-        <v>603673.0</v>
+        <v>609258.0</v>
       </c>
       <c r="C64" t="n" s="7">
-        <v>1.8414493931699885</v>
+        <v>1.8379263744658016</v>
       </c>
       <c r="D64" t="n" s="6">
-        <v>1101304.0</v>
+        <v>1113503.0</v>
       </c>
       <c r="E64" t="n" s="7">
-        <v>3.359427343107412</v>
+        <v>3.3590638641540917</v>
       </c>
       <c r="F64" t="n" s="6">
-        <v>355393.0</v>
+        <v>359198.0</v>
       </c>
       <c r="G64" t="n" s="7">
-        <v>1.0840939120796553</v>
+        <v>1.0835794981032125</v>
       </c>
       <c r="H64" t="n" s="6">
-        <v>19472.0</v>
+        <v>19632.0</v>
       </c>
       <c r="I64" t="n" s="6">
-        <v>78090.0</v>
+        <v>78976.0</v>
       </c>
       <c r="J64" t="n" s="6">
-        <v>5938.0</v>
+        <v>6006.0</v>
       </c>
     </row>
     <row r="65">
@@ -2573,31 +2573,31 @@
         <v>81</v>
       </c>
       <c r="B65" t="n" s="8">
-        <v>1033954.0</v>
+        <v>1045350.0</v>
       </c>
       <c r="C65" t="n" s="9">
-        <v>3.1539823147062767</v>
+        <v>3.153469196215439</v>
       </c>
       <c r="D65" t="n" s="8">
-        <v>1001112.0</v>
+        <v>1011609.0</v>
       </c>
       <c r="E65" t="n" s="9">
-        <v>3.053800790983187</v>
+        <v>3.0516839528524455</v>
       </c>
       <c r="F65" t="n" s="8">
-        <v>1389207.0</v>
+        <v>1402879.0</v>
       </c>
       <c r="G65" t="n" s="9">
-        <v>4.237649169562826</v>
+        <v>4.232013882926788</v>
       </c>
       <c r="H65" t="n" s="10">
-        <v>20299.0</v>
+        <v>20619.0</v>
       </c>
       <c r="I65" t="n" s="10">
-        <v>18344.0</v>
+        <v>18524.0</v>
       </c>
       <c r="J65" t="n" s="10">
-        <v>69795.0</v>
+        <v>70465.0</v>
       </c>
     </row>
     <row r="67">
@@ -2605,31 +2605,31 @@
         <v>82</v>
       </c>
       <c r="B67" t="n" s="8">
-        <v>3.2782492E7</v>
+        <v>3.3149206E7</v>
       </c>
       <c r="C67" t="n" s="9">
-        <v>99.99999999999999</v>
+        <v>100.0</v>
       </c>
       <c r="D67" t="n" s="8">
-        <v>3.2782492E7</v>
+        <v>3.3149206E7</v>
       </c>
       <c r="E67" t="n" s="9">
         <v>100.0</v>
       </c>
       <c r="F67" t="n" s="8">
-        <v>3.2782492E7</v>
+        <v>3.3149206E7</v>
       </c>
       <c r="G67" t="n" s="9">
-        <v>100.00000000000003</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="H67" t="n" s="8">
-        <v>1.18424896E8</v>
+        <v>1.20784792E8</v>
       </c>
       <c r="I67" t="n" s="8">
-        <v>1.1010516E8</v>
+        <v>1.1229699E8</v>
       </c>
       <c r="J67" t="n" s="8">
-        <v>1.15123689E8</v>
+        <v>1.17416448E8</v>
       </c>
     </row>
     <row r="68"/>
@@ -2638,16 +2638,16 @@
         <v>83</v>
       </c>
       <c r="B71" t="n" s="15">
-        <v>4693841.0</v>
+        <v>4746940.0</v>
       </c>
       <c r="C71" t="n" s="16">
-        <v>9.540968536238807</v>
+        <v>9.542163154719619</v>
       </c>
       <c r="D71" t="n" s="15">
-        <v>4722497.0</v>
+        <v>4776113.0</v>
       </c>
       <c r="E71" t="n" s="16">
-        <v>9.599216353830938</v>
+        <v>9.600805885765858</v>
       </c>
     </row>
     <row r="72">
@@ -2655,16 +2655,16 @@
         <v>84</v>
       </c>
       <c r="B72" t="n" s="13">
-        <v>2214126.0</v>
+        <v>2240221.0</v>
       </c>
       <c r="C72" t="n" s="14">
-        <v>4.50055860462003</v>
+        <v>4.503228244854399</v>
       </c>
       <c r="D72" t="n" s="13">
-        <v>2214067.0</v>
+        <v>2239989.0</v>
       </c>
       <c r="E72" t="n" s="14">
-        <v>4.500438677859912</v>
+        <v>4.5027618850832845</v>
       </c>
     </row>
     <row r="73">
@@ -2672,16 +2672,16 @@
         <v>85</v>
       </c>
       <c r="B73" t="n" s="15">
-        <v>3381108.0</v>
+        <v>3419898.0</v>
       </c>
       <c r="C73" t="n" s="16">
-        <v>6.87263267878595</v>
+        <v>6.874581243600996</v>
       </c>
       <c r="D73" t="n" s="15">
-        <v>3399117.0</v>
+        <v>3437490.0</v>
       </c>
       <c r="E73" t="n" s="16">
-        <v>6.909238797819195</v>
+        <v>6.909944179348621</v>
       </c>
     </row>
     <row r="74">
@@ -2689,16 +2689,16 @@
         <v>86</v>
       </c>
       <c r="B74" t="n" s="13">
-        <v>3920136.0</v>
+        <v>3963367.0</v>
       </c>
       <c r="C74" t="n" s="14">
-        <v>7.968291689849965</v>
+        <v>7.967047098979895</v>
       </c>
       <c r="D74" t="n" s="13">
-        <v>3809307.0</v>
+        <v>3850935.0</v>
       </c>
       <c r="E74" t="n" s="14">
-        <v>7.743014352611059</v>
+        <v>7.741039505074888</v>
       </c>
     </row>
     <row r="75">
@@ -2706,16 +2706,16 @@
         <v>87</v>
       </c>
       <c r="B75" t="n" s="15">
-        <v>2776137.0</v>
+        <v>2807265.0</v>
       </c>
       <c r="C75" t="n" s="16">
-        <v>5.642934170392307</v>
+        <v>5.64308389162997</v>
       </c>
       <c r="D75" t="n" s="15">
-        <v>2794311.0</v>
+        <v>2825956.0</v>
       </c>
       <c r="E75" t="n" s="16">
-        <v>5.679875677822491</v>
+        <v>5.6806560057761075</v>
       </c>
     </row>
     <row r="76">
@@ -2723,16 +2723,16 @@
         <v>88</v>
       </c>
       <c r="B76" t="n" s="13">
-        <v>1935077.0</v>
+        <v>1958606.0</v>
       </c>
       <c r="C76" t="n" s="14">
-        <v>3.933347715058815</v>
+        <v>3.937133818378318</v>
       </c>
       <c r="D76" t="n" s="13">
-        <v>1927600.0</v>
+        <v>1951139.0</v>
       </c>
       <c r="E76" t="n" s="14">
-        <v>3.9181495390350727</v>
+        <v>3.922123868331279</v>
       </c>
     </row>
     <row r="77">
@@ -2740,16 +2740,16 @@
         <v>89</v>
       </c>
       <c r="B77" t="n" s="15">
-        <v>1651395.0</v>
+        <v>1668288.0</v>
       </c>
       <c r="C77" t="n" s="16">
-        <v>3.3567195258429257</v>
+        <v>3.3535448699711567</v>
       </c>
       <c r="D77" t="n" s="15">
-        <v>1669899.0</v>
+        <v>1686847.0</v>
       </c>
       <c r="E77" t="n" s="16">
-        <v>3.3943318100669897</v>
+        <v>3.390851641488901</v>
       </c>
     </row>
     <row r="78">
@@ -2757,16 +2757,16 @@
         <v>90</v>
       </c>
       <c r="B78" t="n" s="13">
-        <v>3496467.0</v>
+        <v>3537900.0</v>
       </c>
       <c r="C78" t="n" s="14">
-        <v>7.107117952013563</v>
+        <v>7.11178549235561</v>
       </c>
       <c r="D78" t="n" s="13">
-        <v>3516505.0</v>
+        <v>3557438.0</v>
       </c>
       <c r="E78" t="n" s="14">
-        <v>7.147848332000689</v>
+        <v>7.1510602217006</v>
       </c>
     </row>
     <row r="79">
@@ -2774,16 +2774,16 @@
         <v>91</v>
       </c>
       <c r="B79" t="n" s="15">
-        <v>3508807.0</v>
+        <v>3547942.0</v>
       </c>
       <c r="C79" t="n" s="16">
-        <v>7.132200938790743</v>
+        <v>7.131971633827735</v>
       </c>
       <c r="D79" t="n" s="15">
-        <v>3431311.0</v>
+        <v>3470236.0</v>
       </c>
       <c r="E79" t="n" s="16">
-        <v>6.97467815570449</v>
+        <v>6.975769252904311</v>
       </c>
     </row>
     <row r="80">
@@ -2791,16 +2791,16 @@
         <v>92</v>
       </c>
       <c r="B80" t="n" s="13">
-        <v>2416986.0</v>
+        <v>2442201.0</v>
       </c>
       <c r="C80" t="n" s="14">
-        <v>4.912903393730144</v>
+        <v>4.90924266972395</v>
       </c>
       <c r="D80" t="n" s="13">
-        <v>2383221.0</v>
+        <v>2407986.0</v>
       </c>
       <c r="E80" t="n" s="14">
-        <v>4.844270731774593</v>
+        <v>4.840464654341676</v>
       </c>
     </row>
     <row r="81">
@@ -2808,16 +2808,16 @@
         <v>93</v>
       </c>
       <c r="B81" t="n" s="15">
-        <v>2327207.0</v>
+        <v>2353012.0</v>
       </c>
       <c r="C81" t="n" s="16">
-        <v>4.730413485312925</v>
+        <v>4.729957490301777</v>
       </c>
       <c r="D81" t="n" s="15">
-        <v>2327793.0</v>
+        <v>2353336.0</v>
       </c>
       <c r="E81" t="n" s="16">
-        <v>4.731604622286299</v>
+        <v>4.730608785844196</v>
       </c>
     </row>
     <row r="82">
@@ -2825,16 +2825,16 @@
         <v>94</v>
       </c>
       <c r="B82" t="n" s="13">
-        <v>2297581.0</v>
+        <v>2323079.0</v>
       </c>
       <c r="C82" t="n" s="14">
-        <v>4.670193990478181</v>
+        <v>4.669787028970852</v>
       </c>
       <c r="D82" t="n" s="13">
-        <v>2284627.0</v>
+        <v>2310123.0</v>
       </c>
       <c r="E82" t="n" s="14">
-        <v>4.643862952332995</v>
+        <v>4.6437432479598115</v>
       </c>
     </row>
     <row r="83">
@@ -2842,16 +2842,16 @@
         <v>95</v>
       </c>
       <c r="B83" t="n" s="15">
-        <v>3166203.0</v>
+        <v>3202380.0</v>
       </c>
       <c r="C83" t="n" s="16">
-        <v>6.435804536699245</v>
+        <v>6.437332775095326</v>
       </c>
       <c r="D83" t="n" s="15">
-        <v>3218145.0</v>
+        <v>3254716.0</v>
       </c>
       <c r="E83" t="n" s="16">
-        <v>6.541384804055833</v>
+        <v>6.542537106910223</v>
       </c>
     </row>
     <row r="84">
@@ -2859,16 +2859,16 @@
         <v>96</v>
       </c>
       <c r="B84" t="n" s="13">
-        <v>3342126.0</v>
+        <v>3380352.0</v>
       </c>
       <c r="C84" t="n" s="14">
-        <v>6.793395645516255</v>
+        <v>6.795087004340221</v>
       </c>
       <c r="D84" t="n" s="13">
-        <v>3334093.0</v>
+        <v>3372850.0</v>
       </c>
       <c r="E84" t="n" s="14">
-        <v>6.777067312227674</v>
+        <v>6.78000669829323</v>
       </c>
     </row>
     <row r="85">
@@ -2876,16 +2876,16 @@
         <v>97</v>
       </c>
       <c r="B85" t="n" s="15">
-        <v>3067242.0</v>
+        <v>3100483.0</v>
       </c>
       <c r="C85" t="n" s="16">
-        <v>6.234650772156575</v>
+        <v>6.232502337176064</v>
       </c>
       <c r="D85" t="n" s="15">
-        <v>3153024.0</v>
+        <v>3187787.0</v>
       </c>
       <c r="E85" t="n" s="16">
-        <v>6.40901615074005</v>
+        <v>6.40799834345793</v>
       </c>
     </row>
     <row r="86">
@@ -2893,16 +2893,16 @@
         <v>98</v>
       </c>
       <c r="B86" t="n" s="13">
-        <v>5002254.0</v>
+        <v>5055067.0</v>
       </c>
       <c r="C86" t="n" s="14">
-        <v>10.167866364513566</v>
+        <v>10.16155124607411</v>
       </c>
       <c r="D86" t="n" s="13">
-        <v>5011176.0</v>
+        <v>5064060.0</v>
       </c>
       <c r="E86" t="n" s="14">
-        <v>10.18600172983172</v>
+        <v>10.179628717719085</v>
       </c>
     </row>
     <row r="88">
@@ -2910,16 +2910,16 @@
         <v>82</v>
       </c>
       <c r="B88" t="n" s="15">
-        <v>4.9196693E7</v>
+        <v>4.9747001E7</v>
       </c>
       <c r="C88" t="n" s="16">
         <v>100.0</v>
       </c>
       <c r="D88" t="n" s="15">
-        <v>4.9196693E7</v>
+        <v>4.9747001E7</v>
       </c>
       <c r="E88" t="n" s="16">
-        <v>99.99999999999999</v>
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>
